--- a/RMPP/Exe 8.3D.xlsx
+++ b/RMPP/Exe 8.3D.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianwolloff/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianwolloff/Desktop/MyPortfolio/RMPP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1C5EDF-9958-1946-A66F-6128863DCB1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD49B73-BE1A-C043-91CD-9D54DD0E82DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="100" windowWidth="21620" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="12">
   <si>
     <t>Area</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>Area 2</t>
+  </si>
+  <si>
+    <t>Conclusion</t>
+  </si>
+  <si>
+    <t>From the data we can see people prefer "Other" brands rather then brand A or brand B (Area 1: 60%, Area 2: 45.6%) of the two named brands (A,B) Brand B is the most popular in the two regions Brand A Area 1 (11 15.7%) Area 2 (19 21.1%) Brand B Area 1 (17 24.3%) Area 2 (30 33.3%) Brand A is the lowest scoring brand in both Areas with 15.7% in Area A and 21.1% in Area B.</t>
   </si>
 </sst>
 </file>
@@ -108,7 +114,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -122,6 +128,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,31 +470,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F161"/>
+  <dimension ref="A1:K161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="11" max="11" width="79.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="70" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="K2" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -496,7 +514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -505,7 +523,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -520,7 +538,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -539,7 +557,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -558,7 +576,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -577,7 +595,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -596,7 +614,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -606,7 +624,7 @@
       <c r="D10" s="4"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -616,7 +634,7 @@
       <c r="D11" s="4"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -628,7 +646,7 @@
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -638,7 +656,7 @@
       <c r="D13" s="4"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -653,7 +671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>1</v>
       </c>
@@ -664,15 +682,15 @@
         <v>4</v>
       </c>
       <c r="E15" s="5">
-        <f>100*E6/E$9</f>
+        <f t="shared" ref="E15:F17" si="0">100*E6/E$9</f>
         <v>15.714285714285714</v>
       </c>
       <c r="F15" s="5">
-        <f>100*F6/F$9</f>
+        <f t="shared" si="0"/>
         <v>21.111111111111111</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>1</v>
       </c>
@@ -683,11 +701,11 @@
         <v>2</v>
       </c>
       <c r="E16" s="5">
-        <f>100*E7/E$9</f>
+        <f t="shared" si="0"/>
         <v>24.285714285714285</v>
       </c>
       <c r="F16" s="5">
-        <f>100*F7/F$9</f>
+        <f t="shared" si="0"/>
         <v>33.333333333333336</v>
       </c>
     </row>
@@ -702,11 +720,11 @@
         <v>3</v>
       </c>
       <c r="E17" s="5">
-        <f>100*E8/E$9</f>
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="F17" s="5">
-        <f>100*F8/F$9</f>
+        <f t="shared" si="0"/>
         <v>45.555555555555557</v>
       </c>
     </row>
